--- a/info/metricas/NN/RELU/NN9.xlsx
+++ b/info/metricas/NN/RELU/NN9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7829745943658366</v>
+        <v>0.7965195704587842</v>
       </c>
       <c r="C2" t="n">
-        <v>80836.50533637217</v>
+        <v>74398.28877886246</v>
       </c>
       <c r="D2" t="n">
-        <v>181.9731818494531</v>
+        <v>180.7649364031815</v>
       </c>
       <c r="E2" t="n">
-        <v>104.9183789062499</v>
+        <v>110.7980950927734</v>
       </c>
       <c r="F2" t="n">
-        <v>4625212.363067551</v>
+        <v>919008.9366737747</v>
       </c>
       <c r="G2" t="n">
-        <v>2899.161142578125</v>
+        <v>2488.237431640625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7830201414179013</v>
+        <v>0.7968346436565181</v>
       </c>
       <c r="I2" t="n">
-        <v>6.676863474092766e+16</v>
+        <v>6.557036553095602e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-603324.3878760836</v>
+        <v>-79885.73209162307</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7922572891387685</v>
+        <v>0.7945000922758629</v>
       </c>
       <c r="C3" t="n">
-        <v>77091.034855151</v>
+        <v>73404.26125307834</v>
       </c>
       <c r="D3" t="n">
-        <v>178.9333448439526</v>
+        <v>174.5278644768072</v>
       </c>
       <c r="E3" t="n">
-        <v>110.6783274841309</v>
+        <v>104.3640383911133</v>
       </c>
       <c r="F3" t="n">
-        <v>4547948.825898743</v>
+        <v>887299.6630000877</v>
       </c>
       <c r="G3" t="n">
-        <v>3148.54068359375</v>
+        <v>2295.595703125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7923539434001116</v>
+        <v>0.7945385883570386</v>
       </c>
       <c r="I3" t="n">
-        <v>4.74276517944745e+16</v>
+        <v>6.781722832408657e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-595219.8054398629</v>
+        <v>-83635.57675840986</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7694147223701234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87527.96186856717</v>
+      </c>
+      <c r="D4" t="n">
+        <v>185.7298204241654</v>
+      </c>
+      <c r="E4" t="n">
+        <v>111.3434027099609</v>
+      </c>
+      <c r="F4" t="n">
+        <v>944250.407036457</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2858.97947265625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7694966839970414</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.976813301615344e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-137550.2412070078</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7990410315610759</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78055.93300860557</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.7665046473922</v>
+      </c>
+      <c r="E5" t="n">
+        <v>103.0006405639649</v>
+      </c>
+      <c r="F5" t="n">
+        <v>908848.9096273421</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2130.878525390625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7994676433721276</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.782509168985763e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-138009.2649759555</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8159974928733408</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68587.44801030988</v>
+      </c>
+      <c r="D6" t="n">
+        <v>172.6817507870854</v>
+      </c>
+      <c r="E6" t="n">
+        <v>101.899267578125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>877741.3392507553</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1827.12744140625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8159993672459258</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.112768164900838e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-122880.4238666948</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.801023262350205</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75154.49382909885</v>
+      </c>
+      <c r="D7" t="n">
+        <v>178.8987075778684</v>
+      </c>
+      <c r="E7" t="n">
+        <v>108.6995092773437</v>
+      </c>
+      <c r="F7" t="n">
+        <v>909342.1306183052</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1874.151000976562</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8013574094436998</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.033459124864862e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-131087.6068691622</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7926697707734296</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78477.87683926901</v>
+      </c>
+      <c r="D8" t="n">
+        <v>186.4635606278009</v>
+      </c>
+      <c r="E8" t="n">
+        <v>111.5736822509766</v>
+      </c>
+      <c r="F8" t="n">
+        <v>947794.278671112</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1910.364135742188</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7926702641657403</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.784136605718546e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-56365.34251553619</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8030005269701039</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73760.93825609084</v>
+      </c>
+      <c r="D9" t="n">
+        <v>177.7516439874872</v>
+      </c>
+      <c r="E9" t="n">
+        <v>106.4737310791016</v>
+      </c>
+      <c r="F9" t="n">
+        <v>903511.6063883973</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3125.7667578125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8035019236318582</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.054726861259885e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-42128.36755209565</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8037010276346948</v>
+      </c>
+      <c r="C10" t="n">
+        <v>69718.45332475565</v>
+      </c>
+      <c r="D10" t="n">
+        <v>172.8833346496115</v>
+      </c>
+      <c r="E10" t="n">
+        <v>104.0600234985351</v>
+      </c>
+      <c r="F10" t="n">
+        <v>878765.9900239754</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2123.504150390625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8037083345940438</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.2924013288926e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-101195.7176590429</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7818338802379815</v>
+      </c>
+      <c r="C11" t="n">
+        <v>80252.88641405362</v>
+      </c>
+      <c r="D11" t="n">
+        <v>188.9482295163785</v>
+      </c>
+      <c r="E11" t="n">
+        <v>118.98240234375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>960423.8506317521</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2336.204833984375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.781867947568893</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.206554308460429e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-64298.38656502313</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU9</t>
         </is>
